--- a/Output/Falkson_1998 Falkson 1998 OS DTIC_non_IFN parameters.xlsx
+++ b/Output/Falkson_1998 Falkson 1998 OS DTIC_non_IFN parameters.xlsx
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.8473150791631</v>
+        <v>-2.79756053367509</v>
       </c>
       <c r="C2" t="n">
-        <v>0.144695958439284</v>
+        <v>0.119642980975563</v>
       </c>
       <c r="D2" t="n">
         <v>453.868551920441</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0750160783595377</v>
+        <v>-0.0884476008590871</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0858304841970044</v>
+        <v>0.0838583312620675</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.25444620048039</v>
+        <v>2.20170535405669</v>
       </c>
       <c r="C2" t="n">
-        <v>0.222341048830984</v>
+        <v>0.21892158455339</v>
       </c>
       <c r="D2" t="n">
         <v>436.545117807393</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.911033282332893</v>
+        <v>-0.902310598510134</v>
       </c>
       <c r="C3" t="n">
-        <v>0.102491288079624</v>
+        <v>0.114508545878668</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.4143783123601</v>
+        <v>-2.38452510033337</v>
       </c>
       <c r="C2" t="n">
-        <v>0.137942025672175</v>
+        <v>0.149022890586942</v>
       </c>
       <c r="D2" t="n">
         <v>435.045641326245</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.60198656443551</v>
+        <v>1.58591775413186</v>
       </c>
       <c r="C3" t="n">
-        <v>0.208027541326574</v>
+        <v>0.246475210808504</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.51123869942539</v>
+        <v>-2.47257403697872</v>
       </c>
       <c r="C2" t="n">
-        <v>0.121563063431743</v>
+        <v>0.1067374594493</v>
       </c>
       <c r="D2" t="n">
         <v>441.22628153949</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0369299932610897</v>
+        <v>-0.0386901786342452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.010499509130997</v>
+        <v>0.00949365882628895</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0209369203886629</v>
+        <v>0.014314442896719</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00586329307363494</v>
+        <v>-0.00234476540435095</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00586329307363494</v>
+        <v>-0.00234476540435095</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00736687201749222</v>
+        <v>0.00703221972205866</v>
       </c>
     </row>
   </sheetData>
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0494355419952621</v>
+        <v>0.047926660183367</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0192375999914305</v>
+        <v>-0.0217737793079823</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0192375999914305</v>
+        <v>-0.0217737793079823</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0105044641322206</v>
+        <v>0.013112207079247</v>
       </c>
     </row>
   </sheetData>
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0190280024465431</v>
+        <v>0.0222078219188878</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0126785340110562</v>
+        <v>0.0211604529847967</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0126785340110562</v>
+        <v>0.0211604529847967</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0432754579503796</v>
+        <v>0.0607500295430965</v>
       </c>
     </row>
   </sheetData>
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01477757839091</v>
+        <v>0.011392885249691</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.000462489919387872</v>
+        <v>-0.0000163124782557576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.000462489919387872</v>
+        <v>-0.0000163124782557576</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000110239691991889</v>
+        <v>0.000090129557909974</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Falkson_1998 Falkson 1998 OS DTIC_non_IFN parameters.xlsx
+++ b/Output/Falkson_1998 Falkson 1998 OS DTIC_non_IFN parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -375,12 +375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.79756053367509</v>
+        <v>-2.8473150791631</v>
       </c>
       <c r="C2" t="n">
-        <v>0.119642980975563</v>
+        <v>0.144695958439284</v>
       </c>
       <c r="D2" t="n">
         <v>453.868551920441</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0884476008590871</v>
+        <v>-0.0750160783595377</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0838583312620675</v>
+        <v>0.0858304841970044</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -436,12 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1"/>
@@ -453,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.20170535405669</v>
+        <v>2.25444620048039</v>
       </c>
       <c r="C2" t="n">
-        <v>0.21892158455339</v>
+        <v>0.222341048830984</v>
       </c>
       <c r="D2" t="n">
         <v>436.545117807393</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.902310598510134</v>
+        <v>-0.911033282332893</v>
       </c>
       <c r="C3" t="n">
-        <v>0.114508545878668</v>
+        <v>0.102491288079624</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -514,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.38452510033337</v>
+        <v>-2.4143783123601</v>
       </c>
       <c r="C2" t="n">
-        <v>0.149022890586942</v>
+        <v>0.137942025672175</v>
       </c>
       <c r="D2" t="n">
         <v>435.045641326245</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.58591775413186</v>
+        <v>0.462959154088631</v>
       </c>
       <c r="C3" t="n">
-        <v>0.246475210808504</v>
+        <v>0.128537936727382</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -575,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.47257403697872</v>
+        <v>-2.51123869942539</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1067374594493</v>
+        <v>0.121563063431743</v>
       </c>
       <c r="D2" t="n">
         <v>441.22628153949</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0386901786342452</v>
+        <v>-0.0369299932610897</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00949365882628895</v>
+        <v>0.010499509130997</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -636,12 +636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -684,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.014314442896719</v>
+        <v>0.0209369203886629</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00234476540435095</v>
+        <v>-0.00586329307363494</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00234476540435095</v>
+        <v>-0.00586329307363494</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00703221972205866</v>
+        <v>0.00736687201749222</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.047926660183367</v>
+        <v>0.0494355419952621</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0217737793079823</v>
+        <v>-0.0192375999914305</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0217737793079823</v>
+        <v>-0.0192375999914305</v>
       </c>
       <c r="B3" t="n">
-        <v>0.013112207079247</v>
+        <v>0.0105044641322206</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0222078219188878</v>
+        <v>0.0190280024465431</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0211604529847967</v>
+        <v>0.00808717390768899</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0211604529847967</v>
+        <v>0.00808717390768899</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0607500295430965</v>
+        <v>0.0165220011781323</v>
       </c>
     </row>
   </sheetData>
@@ -798,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.011392885249691</v>
+        <v>0.01477757839091</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0000163124782557576</v>
+        <v>-0.000462489919387872</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0000163124782557576</v>
+        <v>-0.000462489919387872</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000090129557909974</v>
+        <v>0.000110239691991889</v>
       </c>
     </row>
   </sheetData>
